--- a/medicine/Mort/Brandhoek_Military_Cemetery/Brandhoek_Military_Cemetery.xlsx
+++ b/medicine/Mort/Brandhoek_Military_Cemetery/Brandhoek_Military_Cemetery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brandhoek Military Cemetery est un cimetière militaire britannique situé à deux kilomètres à l'ouest du centre du village de Vlamertinge, dans le hameau de Brandhoek, qui se trouve le long de la route d'Ypres à Poperinge (N38), en Belgique.
 Le cimetière qui rassemble les corps de soldats britannique tombé durant la Première Guerre mondiale, a été conçu par Reginald Blomfield et est entretenu par la Commonwealth War Graves Commission.
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la guerre, le feu d'artillerie ennemi s'étendait du saillant d'Ypres au village de Vlamertinge. Le hameau de Brandhoek était juste hors de portée et était relativement sûr, ce qui explique pourquoi les postes médicaux et les camps ont été établis ici. En mai 1915, outre ce poste médical, ce cimetière fut inauguré et resta en service jusqu'en juillet 1917. Pour la troisième bataille d'Ypres, d'autres postes médicaux y furent établis et un nouveau cimetière, le nouveau cimetière militaire de Brandhoek, fut également inauguré.
 602 Britanniques, 63 Canadiens, 4 Australiens et 2 Allemands reposent sur le cimetière.
@@ -548,7 +562,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Frederick James Heyworth, général de brigade à l'état-major général, a reçu l'Ordre du service distingué (DSO). Il était également membre de l'Ordre du Bain (CB).
 James Clark, lieutenant-colonel à l'Argyll and Sutherland Highlanders était également membre de l'Ordre de Bath (CB).
